--- a/err_template_sharepoint.xlsx
+++ b/err_template_sharepoint.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>col_X</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>col_Y</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -488,25 +488,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">* --&gt; </t>
+          <t>0 --&gt; Offshore</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">* --&gt; </t>
+          <t>0 --&gt; 2022-02-14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> --&gt; Offshore</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> --&gt; 2022-02-14</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -540,572 +532,572 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>col_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>col_B</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>col_C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>col_D</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>col_E</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>col_F</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>col_G</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>col_H</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>col_I</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>col_J</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>* --&gt; 1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>* --&gt; 11</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>* --&gt; 21</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>* --&gt; 31</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>* --&gt; 41</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>* --&gt; 51</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>* --&gt; 61</t>
+          <t>61</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>* --&gt; 71</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>* --&gt; 81</t>
+          <t>81</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>* --&gt; 91</t>
+          <t>91</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>* --&gt; 2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>* --&gt; 12</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>* --&gt; 22</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>* --&gt; 32</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>* --&gt; 42</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>* --&gt; 52</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>* --&gt; 62</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>* --&gt; 72</t>
+          <t>72</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>* --&gt; 82</t>
+          <t>82</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>* --&gt; 92</t>
+          <t>92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>* --&gt; 3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>* --&gt; 13</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>* --&gt; 23</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>* --&gt; 33</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>* --&gt; 43</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>* --&gt; 53</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>* --&gt; 63</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>* --&gt; 73</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>* --&gt; 83</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>* --&gt; 93</t>
+          <t>93</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>* --&gt; 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>* --&gt; 14</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>* --&gt; 24</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>* --&gt; 34</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>* --&gt; 44</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>* --&gt; 54</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>* --&gt; 64</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>* --&gt; 74</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>* --&gt; 84</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>* --&gt; 94</t>
+          <t>94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>* --&gt; 5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>* --&gt; 15</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>* --&gt; 25</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>* --&gt; 35</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>* --&gt; 45</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>* --&gt; 55</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>* --&gt; 65</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>* --&gt; 75</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>* --&gt; 85</t>
+          <t>85</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>* --&gt; 95</t>
+          <t>95</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>* --&gt; 6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>* --&gt; 16</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>* --&gt; 26</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>* --&gt; 36</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>* --&gt; 46</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>* --&gt; 56</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>* --&gt; 66</t>
+          <t>66</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>* --&gt; 76</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>* --&gt; 86</t>
+          <t>86</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>* --&gt; 96</t>
+          <t>96</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>* --&gt; 7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>* --&gt; 17</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>* --&gt; 27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>* --&gt; 37</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>* --&gt; 47</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>* --&gt; 57</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>* --&gt; 67</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>* --&gt; 77</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>* --&gt; 87</t>
+          <t>87</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>* --&gt; 97</t>
+          <t>97</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>* --&gt; 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>* --&gt; 18</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>* --&gt; 28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>* --&gt; 38</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>* --&gt; 48</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>* --&gt; 58</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>* --&gt; 68</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>* --&gt; 78</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>* --&gt; 88</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>* --&gt; 98</t>
+          <t>98</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>* --&gt; 9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>* --&gt; 19</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>* --&gt; 29</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>* --&gt; 39</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>* --&gt; 49</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>* --&gt; 59</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>* --&gt; 69</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>* --&gt; 79</t>
+          <t>79</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>* --&gt; 89</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>* --&gt; 99</t>
+          <t>99</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>* --&gt; 10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>* --&gt; 20</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>* --&gt; 30</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>* --&gt; 40</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>* --&gt; 50</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>* --&gt; 60</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>* --&gt; 70</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>* --&gt; 80</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>* --&gt; 90</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>* --&gt; 100</t>
+          <t>100</t>
         </is>
       </c>
     </row>
